--- a/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7918" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7918" uniqueCount="830">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehelse.no/fhir/StructureDefinition/vkp-Observation-Bloodpressure</t>
+    <t>http://hl7.no/fhir/vkpobservation/StructureDefinition/vkp-Observation-Bloodpressure</t>
   </si>
   <si>
     <t>Version</t>
@@ -1671,45 +1671,48 @@
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.</t>
   </si>
   <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/NoDomainVitalSignsBloodpressureBodySiteValueSet</t>
+  </si>
+  <si>
+    <t>&lt; 123037004 |Body structure|</t>
+  </si>
+  <si>
+    <t>OBX-20</t>
+  </si>
+  <si>
+    <t>targetSiteCode</t>
+  </si>
+  <si>
+    <t>718497002 |Inherent location|</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.id</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.extension</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.coding</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.bodySite.coding.code</t>
+  </si>
+  <si>
     <t>http://hl7.no/fhir/ValueSet/no-domain-vitalsignsobservation-bloodpressure-bodysitevalueset</t>
   </si>
   <si>
-    <t>&lt; 123037004 |Body structure|</t>
-  </si>
-  <si>
-    <t>OBX-20</t>
-  </si>
-  <si>
-    <t>targetSiteCode</t>
-  </si>
-  <si>
-    <t>718497002 |Inherent location|</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.bodySite.coding.code</t>
-  </si>
-  <si>
     <t>Observation.bodySite.coding.display</t>
   </si>
   <si>
@@ -1734,37 +1737,40 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/NoDomainVitalSignsBloodPressureMeasurementMethodValueSet</t>
+  </si>
+  <si>
+    <t>OBX-17</t>
+  </si>
+  <si>
+    <t>methodCode</t>
+  </si>
+  <si>
+    <t>Observation.method.id</t>
+  </si>
+  <si>
+    <t>Observation.method.extension</t>
+  </si>
+  <si>
+    <t>Observation.method.coding</t>
+  </si>
+  <si>
+    <t>Observation.method.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.method.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.method.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.method.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.method.coding.code</t>
+  </si>
+  <si>
     <t>http://hl7.no/fhir/ValueSet/no-domain-vitalsignsobservation-bloodpressure-measurementmethodvalueSet</t>
-  </si>
-  <si>
-    <t>OBX-17</t>
-  </si>
-  <si>
-    <t>methodCode</t>
-  </si>
-  <si>
-    <t>Observation.method.id</t>
-  </si>
-  <si>
-    <t>Observation.method.extension</t>
-  </si>
-  <si>
-    <t>Observation.method.coding</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.method.coding.code</t>
   </si>
   <si>
     <t>Observation.method.coding.display</t>
@@ -2938,7 +2944,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="83.859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.5" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.4453125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -14461,7 +14467,7 @@
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>80</v>
@@ -14514,10 +14520,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14634,10 +14640,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14756,10 +14762,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14878,10 +14884,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14907,16 +14913,16 @@
         <v>188</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
@@ -14945,7 +14951,7 @@
       </c>
       <c r="Y100" s="2"/>
       <c r="Z100" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>80</v>
@@ -14963,7 +14969,7 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14984,10 +14990,10 @@
         <v>80</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14998,10 +15004,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15116,10 +15122,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15236,10 +15242,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15303,7 +15309,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -15356,10 +15362,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15474,10 +15480,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15594,10 +15600,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15716,10 +15722,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15836,10 +15842,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15901,7 +15907,7 @@
       </c>
       <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>80</v>
@@ -15954,10 +15960,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16074,10 +16080,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16196,10 +16202,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16318,10 +16324,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16344,16 +16350,16 @@
         <v>80</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -16403,7 +16409,7 @@
         <v>80</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -16421,27 +16427,27 @@
         <v>80</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP112" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16464,16 +16470,16 @@
         <v>80</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16523,7 +16529,7 @@
         <v>80</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -16541,27 +16547,27 @@
         <v>80</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16584,19 +16590,19 @@
         <v>80</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>80</v>
@@ -16645,7 +16651,7 @@
         <v>80</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -16657,7 +16663,7 @@
         <v>80</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AK114" t="s" s="2">
         <v>80</v>
@@ -16666,10 +16672,10 @@
         <v>80</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>80</v>
@@ -16680,10 +16686,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16798,10 +16804,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16918,14 +16924,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16947,10 +16953,10 @@
         <v>137</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>140</v>
@@ -17005,7 +17011,7 @@
         <v>80</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -17040,10 +17046,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17066,13 +17072,13 @@
         <v>80</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17123,7 +17129,7 @@
         <v>80</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -17132,7 +17138,7 @@
         <v>91</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>103</v>
@@ -17144,10 +17150,10 @@
         <v>80</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>80</v>
@@ -17158,10 +17164,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17184,13 +17190,13 @@
         <v>80</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -17241,7 +17247,7 @@
         <v>80</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -17250,7 +17256,7 @@
         <v>91</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>103</v>
@@ -17262,10 +17268,10 @@
         <v>80</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>80</v>
@@ -17276,10 +17282,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17305,16 +17311,16 @@
         <v>188</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>80</v>
@@ -17342,10 +17348,10 @@
         <v>115</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>80</v>
@@ -17363,7 +17369,7 @@
         <v>80</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -17381,10 +17387,10 @@
         <v>80</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>515</v>
@@ -17398,10 +17404,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17427,16 +17433,16 @@
         <v>188</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="O121" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>80</v>
@@ -17461,13 +17467,13 @@
         <v>80</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>80</v>
@@ -17485,7 +17491,7 @@
         <v>80</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -17503,10 +17509,10 @@
         <v>80</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>515</v>
@@ -17520,10 +17526,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17546,17 +17552,17 @@
         <v>80</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>80</v>
@@ -17605,7 +17611,7 @@
         <v>80</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -17629,7 +17635,7 @@
         <v>80</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>80</v>
@@ -17640,10 +17646,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17669,10 +17675,10 @@
         <v>203</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17723,7 +17729,7 @@
         <v>80</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -17744,10 +17750,10 @@
         <v>80</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>80</v>
@@ -17758,10 +17764,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17784,16 +17790,16 @@
         <v>92</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17843,7 +17849,7 @@
         <v>80</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>78</v>
@@ -17864,10 +17870,10 @@
         <v>80</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>80</v>
@@ -17878,10 +17884,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17904,16 +17910,16 @@
         <v>92</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="N125" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17963,7 +17969,7 @@
         <v>80</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>78</v>
@@ -17984,10 +17990,10 @@
         <v>80</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>80</v>
@@ -17998,10 +18004,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18009,7 +18015,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>79</v>
@@ -18024,19 +18030,19 @@
         <v>92</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>80</v>
@@ -18073,7 +18079,7 @@
         <v>80</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="AC126" s="2"/>
       <c r="AD126" t="s" s="2">
@@ -18083,7 +18089,7 @@
         <v>196</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>78</v>
@@ -18095,7 +18101,7 @@
         <v>80</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>80</v>
@@ -18104,10 +18110,10 @@
         <v>80</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>80</v>
@@ -18118,10 +18124,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18236,10 +18242,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18356,14 +18362,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -18385,10 +18391,10 @@
         <v>137</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>140</v>
@@ -18443,7 +18449,7 @@
         <v>80</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>78</v>
@@ -18478,10 +18484,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18507,16 +18513,16 @@
         <v>188</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="O130" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>80</v>
@@ -18565,7 +18571,7 @@
         <v>80</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>91</v>
@@ -18583,7 +18589,7 @@
         <v>80</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>293</v>
@@ -18600,10 +18606,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18626,16 +18632,16 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>486</v>
@@ -18666,10 +18672,10 @@
         <v>288</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>80</v>
@@ -18687,7 +18693,7 @@
         <v>80</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>78</v>
@@ -18696,7 +18702,7 @@
         <v>91</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>103</v>
@@ -18705,7 +18711,7 @@
         <v>80</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>491</v>
@@ -18722,10 +18728,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18751,13 +18757,13 @@
         <v>188</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>500</v>
@@ -18809,7 +18815,7 @@
         <v>80</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -18818,7 +18824,7 @@
         <v>91</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>103</v>
@@ -18844,10 +18850,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18931,7 +18937,7 @@
         <v>80</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>78</v>
@@ -18966,10 +18972,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -18995,16 +19001,16 @@
         <v>81</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>80</v>
@@ -19053,7 +19059,7 @@
         <v>80</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>78</v>
@@ -19074,10 +19080,10 @@
         <v>80</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>80</v>
@@ -19088,13 +19094,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>80</v>
@@ -19116,19 +19122,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>80</v>
@@ -19177,7 +19183,7 @@
         <v>80</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>78</v>
@@ -19189,7 +19195,7 @@
         <v>80</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AK135" t="s" s="2">
         <v>80</v>
@@ -19198,10 +19204,10 @@
         <v>80</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>80</v>
@@ -19212,10 +19218,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19330,10 +19336,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19450,14 +19456,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -19479,10 +19485,10 @@
         <v>137</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N138" t="s" s="2">
         <v>140</v>
@@ -19537,7 +19543,7 @@
         <v>80</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>78</v>
@@ -19572,14 +19578,14 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19601,16 +19607,16 @@
         <v>188</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>286</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>80</v>
@@ -19659,7 +19665,7 @@
         <v>80</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>91</v>
@@ -19677,7 +19683,7 @@
         <v>80</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>293</v>
@@ -19694,10 +19700,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19812,10 +19818,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19932,10 +19938,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19961,10 +19967,10 @@
         <v>216</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N142" t="s" s="2">
         <v>219</v>
@@ -20052,13 +20058,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>80</v>
@@ -20083,10 +20089,10 @@
         <v>216</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>219</v>
@@ -20176,10 +20182,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20294,10 +20300,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20414,10 +20420,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20536,10 +20542,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20656,10 +20662,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20699,7 +20705,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>80</v>
@@ -20776,10 +20782,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20896,10 +20902,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21018,13 +21024,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>80</v>
@@ -21049,10 +21055,10 @@
         <v>216</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>219</v>
@@ -21142,10 +21148,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21260,10 +21266,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21380,10 +21386,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21502,10 +21508,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21622,10 +21628,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21665,7 +21671,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>80</v>
@@ -21742,10 +21748,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21862,10 +21868,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21984,10 +21990,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22106,10 +22112,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22135,13 +22141,13 @@
         <v>483</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>486</v>
@@ -22172,10 +22178,10 @@
         <v>288</v>
       </c>
       <c r="Y160" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Z160" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>80</v>
@@ -22193,7 +22199,7 @@
         <v>80</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>78</v>
@@ -22202,7 +22208,7 @@
         <v>91</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>103</v>
@@ -22211,7 +22217,7 @@
         <v>80</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>491</v>
@@ -22228,10 +22234,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22346,10 +22352,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22466,10 +22472,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22492,19 +22498,19 @@
         <v>92</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N163" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O163" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>80</v>
@@ -22553,7 +22559,7 @@
         <v>80</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>78</v>
@@ -22574,10 +22580,10 @@
         <v>80</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>80</v>
@@ -22588,10 +22594,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22617,20 +22623,20 @@
         <v>111</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q164" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="R164" t="s" s="2">
         <v>80</v>
@@ -22654,10 +22660,10 @@
         <v>180</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="Z164" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>80</v>
@@ -22675,7 +22681,7 @@
         <v>80</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>78</v>
@@ -22696,10 +22702,10 @@
         <v>80</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>80</v>
@@ -22710,10 +22716,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22739,14 +22745,14 @@
         <v>203</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>80</v>
@@ -22795,7 +22801,7 @@
         <v>80</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>78</v>
@@ -22816,10 +22822,10 @@
         <v>80</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>80</v>
@@ -22830,10 +22836,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22859,21 +22865,21 @@
         <v>105</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>80</v>
@@ -22915,7 +22921,7 @@
         <v>80</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>78</v>
@@ -22924,7 +22930,7 @@
         <v>91</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>103</v>
@@ -22936,10 +22942,10 @@
         <v>80</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>80</v>
@@ -22950,10 +22956,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22979,23 +22985,23 @@
         <v>111</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O167" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>80</v>
@@ -23037,7 +23043,7 @@
         <v>80</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>78</v>
@@ -23058,10 +23064,10 @@
         <v>80</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>80</v>
@@ -23072,10 +23078,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23101,13 +23107,13 @@
         <v>188</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N168" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>500</v>
@@ -23159,7 +23165,7 @@
         <v>80</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>78</v>
@@ -23168,7 +23174,7 @@
         <v>91</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>103</v>
@@ -23194,10 +23200,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23281,7 +23287,7 @@
         <v>80</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>78</v>
@@ -23316,10 +23322,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23345,16 +23351,16 @@
         <v>81</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>80</v>
@@ -23403,7 +23409,7 @@
         <v>80</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>78</v>
@@ -23424,10 +23430,10 @@
         <v>80</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>80</v>
@@ -23438,13 +23444,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>80</v>
@@ -23466,19 +23472,19 @@
         <v>92</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>80</v>
@@ -23527,7 +23533,7 @@
         <v>80</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>78</v>
@@ -23539,7 +23545,7 @@
         <v>80</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="AK171" t="s" s="2">
         <v>80</v>
@@ -23548,10 +23554,10 @@
         <v>80</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>80</v>
@@ -23562,10 +23568,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23680,10 +23686,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23800,14 +23806,14 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
@@ -23829,10 +23835,10 @@
         <v>137</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N174" t="s" s="2">
         <v>140</v>
@@ -23887,7 +23893,7 @@
         <v>80</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>78</v>
@@ -23922,10 +23928,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23951,16 +23957,16 @@
         <v>188</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>286</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>80</v>
@@ -24009,7 +24015,7 @@
         <v>80</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>91</v>
@@ -24027,7 +24033,7 @@
         <v>80</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>293</v>
@@ -24044,10 +24050,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24162,10 +24168,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24282,10 +24288,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24311,10 +24317,10 @@
         <v>216</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="N178" t="s" s="2">
         <v>219</v>
@@ -24402,13 +24408,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>80</v>
@@ -24433,10 +24439,10 @@
         <v>216</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>219</v>
@@ -24526,10 +24532,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24644,10 +24650,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24764,10 +24770,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24886,10 +24892,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25006,10 +25012,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25049,7 +25055,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>80</v>
@@ -25126,10 +25132,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25246,10 +25252,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25368,13 +25374,13 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D187" t="s" s="2">
         <v>80</v>
@@ -25399,10 +25405,10 @@
         <v>216</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="N187" t="s" s="2">
         <v>219</v>
@@ -25492,10 +25498,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25610,10 +25616,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25730,10 +25736,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25852,10 +25858,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25972,10 +25978,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26015,7 +26021,7 @@
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>80</v>
@@ -26092,10 +26098,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26212,10 +26218,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26334,10 +26340,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26456,10 +26462,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26485,13 +26491,13 @@
         <v>483</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>486</v>
@@ -26522,10 +26528,10 @@
         <v>288</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>80</v>
@@ -26543,7 +26549,7 @@
         <v>80</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
@@ -26552,7 +26558,7 @@
         <v>91</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>103</v>
@@ -26561,7 +26567,7 @@
         <v>80</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>491</v>
@@ -26578,10 +26584,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26696,10 +26702,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26816,10 +26822,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26842,19 +26848,19 @@
         <v>92</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>80</v>
@@ -26903,7 +26909,7 @@
         <v>80</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>78</v>
@@ -26924,10 +26930,10 @@
         <v>80</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>80</v>
@@ -26938,10 +26944,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26967,20 +26973,20 @@
         <v>111</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q200" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="R200" t="s" s="2">
         <v>80</v>
@@ -27004,10 +27010,10 @@
         <v>180</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>80</v>
@@ -27025,7 +27031,7 @@
         <v>80</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -27046,10 +27052,10 @@
         <v>80</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>80</v>
@@ -27060,10 +27066,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27089,14 +27095,14 @@
         <v>203</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>80</v>
@@ -27145,7 +27151,7 @@
         <v>80</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>78</v>
@@ -27166,10 +27172,10 @@
         <v>80</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>80</v>
@@ -27180,10 +27186,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27209,21 +27215,21 @@
         <v>105</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q202" s="2"/>
       <c r="R202" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="S202" t="s" s="2">
         <v>80</v>
@@ -27265,7 +27271,7 @@
         <v>80</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>78</v>
@@ -27274,7 +27280,7 @@
         <v>91</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>103</v>
@@ -27286,10 +27292,10 @@
         <v>80</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>80</v>
@@ -27300,10 +27306,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27329,23 +27335,23 @@
         <v>111</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="O203" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="S203" t="s" s="2">
         <v>80</v>
@@ -27387,7 +27393,7 @@
         <v>80</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>78</v>
@@ -27408,10 +27414,10 @@
         <v>80</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>80</v>
@@ -27422,10 +27428,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27451,13 +27457,13 @@
         <v>188</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>500</v>
@@ -27509,7 +27515,7 @@
         <v>80</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>78</v>
@@ -27518,7 +27524,7 @@
         <v>91</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>103</v>
@@ -27544,10 +27550,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27631,7 +27637,7 @@
         <v>80</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>78</v>
@@ -27666,10 +27672,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27695,16 +27701,16 @@
         <v>81</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>80</v>
@@ -27753,7 +27759,7 @@
         <v>80</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>78</v>
@@ -27774,10 +27780,10 @@
         <v>80</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>80</v>

--- a/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -1230,7 +1230,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://ehelse.no/fhir/ValueSet/vkp-subject-identifiers.valueset</t>
+    <t>http://hl7.no/fhir/vkpobservation/CodeSystem/vkp-performer-identifiers.codesystem</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1508,7 +1508,7 @@
     <t>Observation.performer.identifier.system</t>
   </si>
   <si>
-    <t>http://ehelse.no/fhir/ValueSet/vkp-performer-identifiers.valueset</t>
+    <t>http://hl7.no/fhir/vkpobservation/CodeSystem/vkp-subject-identifiers.codesystem</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>

--- a/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -1230,7 +1230,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/vkpobservation/CodeSystem/vkp-performer-identifiers.codesystem</t>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1508,7 +1508,7 @@
     <t>Observation.performer.identifier.system</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/vkpobservation/CodeSystem/vkp-subject-identifiers.codesystem</t>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>

--- a/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -1230,7 +1230,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-identifiers.valueset</t>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-subject-identifiers.valueset</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -1508,7 +1508,7 @@
     <t>Observation.performer.identifier.system</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-subject-identifiers.valueset</t>
+    <t>http://hl7.no/fhir/vkpobservation/ValueSet/vkp-performer-identifiers.valueset</t>
   </si>
   <si>
     <t>Observation.performer.identifier.value</t>

--- a/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
+++ b/testbuild/StructureDefinition-vkp-Observation-Bloodpressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7921" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7921" uniqueCount="831">
   <si>
     <t>Property</t>
   </si>
@@ -1719,9 +1719,6 @@
     <t>Observation.bodySite.coding.code</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/no-domain-vitalsignsobservation-bloodpressure-bodysitevalueset</t>
-  </si>
-  <si>
     <t>Observation.bodySite.coding.display</t>
   </si>
   <si>
@@ -1777,9 +1774,6 @@
   </si>
   <si>
     <t>Observation.method.coding.code</t>
-  </si>
-  <si>
-    <t>http://hl7.no/fhir/ValueSet/no-domain-vitalsignsobservation-bloodpressure-measurementmethodvalueSet</t>
   </si>
   <si>
     <t>Observation.method.coding.display</t>
@@ -14486,7 +14480,7 @@
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>83</v>
@@ -14539,10 +14533,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14659,10 +14653,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14781,10 +14775,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14903,10 +14897,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14932,16 +14926,16 @@
         <v>191</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>552</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>553</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>83</v>
@@ -14970,7 +14964,7 @@
       </c>
       <c r="Y100" s="2"/>
       <c r="Z100" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>83</v>
@@ -14988,7 +14982,7 @@
         <v>83</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>81</v>
@@ -15009,10 +15003,10 @@
         <v>83</v>
       </c>
       <c r="AM100" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>83</v>
@@ -15023,10 +15017,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15141,10 +15135,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15261,10 +15255,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15328,7 +15322,7 @@
       </c>
       <c r="Y103" s="2"/>
       <c r="Z103" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>83</v>
@@ -15381,10 +15375,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15499,10 +15493,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15619,10 +15613,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15741,10 +15735,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15861,10 +15855,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15926,7 +15920,7 @@
       </c>
       <c r="Y108" s="2"/>
       <c r="Z108" t="s" s="2">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>83</v>
@@ -15979,10 +15973,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16099,10 +16093,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16221,10 +16215,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -16343,10 +16337,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16369,16 +16363,16 @@
         <v>83</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -16428,7 +16422,7 @@
         <v>83</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>81</v>
@@ -16446,27 +16440,27 @@
         <v>83</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="AM112" t="s" s="2">
+      <c r="AO112" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP112" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="AO112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP112" t="s" s="2">
-        <v>577</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16489,16 +16483,16 @@
         <v>83</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -16548,7 +16542,7 @@
         <v>83</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>81</v>
@@ -16566,27 +16560,27 @@
         <v>83</v>
       </c>
       <c r="AL113" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AN113" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AO113" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP113" t="s" s="2">
         <v>584</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>586</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16609,19 +16603,19 @@
         <v>83</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="L114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>83</v>
@@ -16670,7 +16664,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>81</v>
@@ -16682,19 +16676,19 @@
         <v>83</v>
       </c>
       <c r="AJ114" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>83</v>
@@ -16705,10 +16699,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -16823,10 +16817,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -16943,14 +16937,14 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" t="s" s="2">
@@ -16972,10 +16966,10 @@
         <v>140</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N117" t="s" s="2">
         <v>143</v>
@@ -17030,7 +17024,7 @@
         <v>83</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>81</v>
@@ -17065,10 +17059,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17091,13 +17085,13 @@
         <v>83</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M118" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>606</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -17148,7 +17142,7 @@
         <v>83</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>81</v>
@@ -17157,7 +17151,7 @@
         <v>94</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>106</v>
@@ -17169,10 +17163,10 @@
         <v>83</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>83</v>
@@ -17183,10 +17177,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17209,13 +17203,13 @@
         <v>83</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -17266,7 +17260,7 @@
         <v>83</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>81</v>
@@ -17275,7 +17269,7 @@
         <v>94</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>106</v>
@@ -17287,10 +17281,10 @@
         <v>83</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>83</v>
@@ -17301,10 +17295,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17330,16 +17324,16 @@
         <v>191</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N120" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="O120" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>618</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>83</v>
@@ -17367,10 +17361,10 @@
         <v>118</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>83</v>
@@ -17388,7 +17382,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>81</v>
@@ -17406,10 +17400,10 @@
         <v>83</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>518</v>
@@ -17423,10 +17417,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17452,16 +17446,16 @@
         <v>191</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N121" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="O121" t="s" s="2">
         <v>625</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="P121" t="s" s="2">
         <v>83</v>
@@ -17486,14 +17480,14 @@
         <v>83</v>
       </c>
       <c r="X121" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="Y121" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="AA121" t="s" s="2">
         <v>83</v>
       </c>
@@ -17510,7 +17504,7 @@
         <v>83</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -17528,10 +17522,10 @@
         <v>83</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>518</v>
@@ -17545,10 +17539,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -17571,17 +17565,17 @@
         <v>83</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>634</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>83</v>
@@ -17630,7 +17624,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -17654,7 +17648,7 @@
         <v>83</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>83</v>
@@ -17665,10 +17659,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -17694,10 +17688,10 @@
         <v>206</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -17748,7 +17742,7 @@
         <v>83</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>81</v>
@@ -17769,10 +17763,10 @@
         <v>83</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AN123" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AO123" t="s" s="2">
         <v>83</v>
@@ -17783,10 +17777,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -17809,16 +17803,16 @@
         <v>95</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="M124" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="N124" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -17868,7 +17862,7 @@
         <v>83</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -17889,10 +17883,10 @@
         <v>83</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AO124" t="s" s="2">
         <v>83</v>
@@ -17903,10 +17897,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -17929,16 +17923,16 @@
         <v>95</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="N125" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
@@ -17988,7 +17982,7 @@
         <v>83</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
@@ -18009,10 +18003,10 @@
         <v>83</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>83</v>
@@ -18023,10 +18017,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18034,7 +18028,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>82</v>
@@ -18049,19 +18043,19 @@
         <v>95</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L126" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O126" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>83</v>
@@ -18098,7 +18092,7 @@
         <v>83</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="AC126" s="2"/>
       <c r="AD126" t="s" s="2">
@@ -18108,7 +18102,7 @@
         <v>199</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>81</v>
@@ -18120,19 +18114,19 @@
         <v>83</v>
       </c>
       <c r="AJ126" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AN126" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM126" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AN126" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>83</v>
@@ -18143,10 +18137,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18261,10 +18255,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -18381,14 +18375,14 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
@@ -18410,10 +18404,10 @@
         <v>140</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>143</v>
@@ -18468,7 +18462,7 @@
         <v>83</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
@@ -18503,10 +18497,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -18532,16 +18526,16 @@
         <v>191</v>
       </c>
       <c r="L130" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="M130" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="N130" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="O130" t="s" s="2">
         <v>668</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>669</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>83</v>
@@ -18590,7 +18584,7 @@
         <v>83</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>94</v>
@@ -18608,7 +18602,7 @@
         <v>83</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>296</v>
@@ -18625,10 +18619,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18651,16 +18645,16 @@
         <v>95</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M131" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="M131" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>489</v>
@@ -18691,37 +18685,37 @@
         <v>291</v>
       </c>
       <c r="Y131" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI131" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="Z131" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AA131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE131" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF131" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AG131" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH131" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI131" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>106</v>
@@ -18730,7 +18724,7 @@
         <v>83</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>494</v>
@@ -18747,10 +18741,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18776,13 +18770,13 @@
         <v>191</v>
       </c>
       <c r="L132" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N132" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>503</v>
@@ -18834,7 +18828,7 @@
         <v>83</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
@@ -18843,7 +18837,7 @@
         <v>94</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>106</v>
@@ -18869,10 +18863,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -18956,7 +18950,7 @@
         <v>83</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>81</v>
@@ -18991,10 +18985,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19020,16 +19014,16 @@
         <v>84</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O134" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>83</v>
@@ -19078,7 +19072,7 @@
         <v>83</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>81</v>
@@ -19099,10 +19093,10 @@
         <v>83</v>
       </c>
       <c r="AM134" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>83</v>
@@ -19113,13 +19107,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>83</v>
@@ -19141,19 +19135,19 @@
         <v>95</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O135" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>83</v>
@@ -19202,7 +19196,7 @@
         <v>83</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>81</v>
@@ -19214,19 +19208,19 @@
         <v>83</v>
       </c>
       <c r="AJ135" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AN135" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>83</v>
@@ -19237,10 +19231,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19355,10 +19349,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19475,14 +19469,14 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
@@ -19504,10 +19498,10 @@
         <v>140</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N138" t="s" s="2">
         <v>143</v>
@@ -19562,7 +19556,7 @@
         <v>83</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -19597,14 +19591,14 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19626,16 +19620,16 @@
         <v>191</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N139" t="s" s="2">
         <v>289</v>
       </c>
       <c r="O139" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>83</v>
@@ -19684,7 +19678,7 @@
         <v>83</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>94</v>
@@ -19702,7 +19696,7 @@
         <v>83</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>296</v>
@@ -19719,10 +19713,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19837,10 +19831,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19957,10 +19951,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -19986,10 +19980,10 @@
         <v>219</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N142" t="s" s="2">
         <v>222</v>
@@ -20077,13 +20071,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>83</v>
@@ -20108,10 +20102,10 @@
         <v>219</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N143" t="s" s="2">
         <v>222</v>
@@ -20201,10 +20195,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20319,10 +20313,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20439,10 +20433,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20561,10 +20555,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20681,10 +20675,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20724,7 +20718,7 @@
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>83</v>
@@ -20801,10 +20795,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20921,10 +20915,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21043,13 +21037,13 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>83</v>
@@ -21074,10 +21068,10 @@
         <v>219</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N151" t="s" s="2">
         <v>222</v>
@@ -21167,10 +21161,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21285,10 +21279,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21405,10 +21399,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21527,10 +21521,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21647,10 +21641,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21690,7 +21684,7 @@
       </c>
       <c r="Q156" s="2"/>
       <c r="R156" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="S156" t="s" s="2">
         <v>83</v>
@@ -21767,10 +21761,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21887,10 +21881,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22009,10 +22003,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22131,10 +22125,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22160,13 +22154,13 @@
         <v>486</v>
       </c>
       <c r="L160" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M160" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="N160" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="M160" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>489</v>
@@ -22197,37 +22191,37 @@
         <v>291</v>
       </c>
       <c r="Y160" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Z160" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AA160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE160" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH160" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI160" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="Z160" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AA160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE160" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI160" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>106</v>
@@ -22236,7 +22230,7 @@
         <v>83</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>494</v>
@@ -22253,10 +22247,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22371,10 +22365,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22491,10 +22485,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22517,19 +22511,19 @@
         <v>95</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>83</v>
@@ -22578,7 +22572,7 @@
         <v>83</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>81</v>
@@ -22599,10 +22593,10 @@
         <v>83</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>83</v>
@@ -22613,10 +22607,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22642,20 +22636,20 @@
         <v>114</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q164" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="R164" t="s" s="2">
         <v>83</v>
@@ -22679,28 +22673,28 @@
         <v>183</v>
       </c>
       <c r="Y164" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="Z164" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AA164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE164" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF164" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="Z164" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="AA164" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB164" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC164" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD164" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE164" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF164" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>81</v>
@@ -22721,10 +22715,10 @@
         <v>83</v>
       </c>
       <c r="AM164" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>83</v>
@@ -22735,10 +22729,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22764,14 +22758,14 @@
         <v>206</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>83</v>
@@ -22820,7 +22814,7 @@
         <v>83</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>81</v>
@@ -22841,10 +22835,10 @@
         <v>83</v>
       </c>
       <c r="AM165" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>83</v>
@@ -22855,10 +22849,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22884,72 +22878,72 @@
         <v>108</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="S166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE166" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF166" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="AG166" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH166" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI166" t="s" s="2">
         <v>774</v>
-      </c>
-      <c r="S166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE166" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF166" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="AG166" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH166" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI166" t="s" s="2">
-        <v>776</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>106</v>
@@ -22961,10 +22955,10 @@
         <v>83</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>83</v>
@@ -22975,10 +22969,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23004,23 +22998,23 @@
         <v>114</v>
       </c>
       <c r="L167" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="M167" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="O167" t="s" s="2">
         <v>780</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>782</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>83</v>
@@ -23062,7 +23056,7 @@
         <v>83</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>81</v>
@@ -23083,10 +23077,10 @@
         <v>83</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>83</v>
@@ -23097,10 +23091,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23126,13 +23120,13 @@
         <v>191</v>
       </c>
       <c r="L168" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M168" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N168" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N168" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>503</v>
@@ -23184,7 +23178,7 @@
         <v>83</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>81</v>
@@ -23193,7 +23187,7 @@
         <v>94</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>106</v>
@@ -23219,10 +23213,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23306,7 +23300,7 @@
         <v>83</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>81</v>
@@ -23341,10 +23335,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23370,16 +23364,16 @@
         <v>84</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>83</v>
@@ -23428,7 +23422,7 @@
         <v>83</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>81</v>
@@ -23449,10 +23443,10 @@
         <v>83</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>83</v>
@@ -23463,13 +23457,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>83</v>
@@ -23491,19 +23485,19 @@
         <v>95</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="L171" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M171" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N171" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="O171" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="M171" t="s" s="2">
-        <v>656</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>658</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>83</v>
@@ -23552,7 +23546,7 @@
         <v>83</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>81</v>
@@ -23564,19 +23558,19 @@
         <v>83</v>
       </c>
       <c r="AJ171" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AK171" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL171" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM171" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AN171" t="s" s="2">
         <v>660</v>
-      </c>
-      <c r="AK171" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL171" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM171" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="AN171" t="s" s="2">
-        <v>662</v>
       </c>
       <c r="AO171" t="s" s="2">
         <v>83</v>
@@ -23587,10 +23581,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23705,10 +23699,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23825,14 +23819,14 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
@@ -23854,10 +23848,10 @@
         <v>140</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N174" t="s" s="2">
         <v>143</v>
@@ -23912,7 +23906,7 @@
         <v>83</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>81</v>
@@ -23947,10 +23941,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -23976,16 +23970,16 @@
         <v>191</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>289</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>83</v>
@@ -24034,7 +24028,7 @@
         <v>83</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>94</v>
@@ -24052,7 +24046,7 @@
         <v>83</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>296</v>
@@ -24069,10 +24063,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24187,10 +24181,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24307,10 +24301,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24336,10 +24330,10 @@
         <v>219</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N178" t="s" s="2">
         <v>222</v>
@@ -24427,13 +24421,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>83</v>
@@ -24458,10 +24452,10 @@
         <v>219</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>222</v>
@@ -24551,10 +24545,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24669,10 +24663,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24789,10 +24783,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24911,10 +24905,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25031,10 +25025,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25074,7 +25068,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>83</v>
@@ -25151,10 +25145,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25271,10 +25265,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25393,13 +25387,13 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D187" t="s" s="2">
         <v>83</v>
@@ -25424,10 +25418,10 @@
         <v>219</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="N187" t="s" s="2">
         <v>222</v>
@@ -25517,10 +25511,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25635,10 +25629,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25755,10 +25749,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -25877,10 +25871,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -25997,10 +25991,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26040,7 +26034,7 @@
       </c>
       <c r="Q192" s="2"/>
       <c r="R192" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="S192" t="s" s="2">
         <v>83</v>
@@ -26117,10 +26111,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26237,10 +26231,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26359,10 +26353,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26481,10 +26475,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26510,13 +26504,13 @@
         <v>486</v>
       </c>
       <c r="L196" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="M196" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="N196" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>489</v>
@@ -26547,37 +26541,37 @@
         <v>291</v>
       </c>
       <c r="Y196" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="Z196" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="AA196" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB196" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC196" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD196" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE196" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF196" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="AG196" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH196" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI196" t="s" s="2">
         <v>677</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI196" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>106</v>
@@ -26586,7 +26580,7 @@
         <v>83</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AM196" t="s" s="2">
         <v>494</v>
@@ -26603,10 +26597,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26721,10 +26715,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26841,10 +26835,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26867,19 +26861,19 @@
         <v>95</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="O199" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="O199" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>83</v>
@@ -26928,7 +26922,7 @@
         <v>83</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>81</v>
@@ -26949,10 +26943,10 @@
         <v>83</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AN199" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="AO199" t="s" s="2">
         <v>83</v>
@@ -26963,10 +26957,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26992,20 +26986,20 @@
         <v>114</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P200" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q200" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="R200" t="s" s="2">
         <v>83</v>
@@ -27029,28 +27023,28 @@
         <v>183</v>
       </c>
       <c r="Y200" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="Z200" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="AA200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE200" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF200" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="Z200" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="AA200" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB200" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC200" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD200" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE200" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF200" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>81</v>
@@ -27071,10 +27065,10 @@
         <v>83</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="AN200" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="AO200" t="s" s="2">
         <v>83</v>
@@ -27085,10 +27079,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -27114,14 +27108,14 @@
         <v>206</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>83</v>
@@ -27170,7 +27164,7 @@
         <v>83</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>81</v>
@@ -27191,10 +27185,10 @@
         <v>83</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AN201" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="AO201" t="s" s="2">
         <v>83</v>
@@ -27205,10 +27199,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -27234,72 +27228,72 @@
         <v>108</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="N202" s="2"/>
       <c r="O202" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q202" s="2"/>
       <c r="R202" t="s" s="2">
+        <v>772</v>
+      </c>
+      <c r="S202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE202" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF202" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="AG202" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH202" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AI202" t="s" s="2">
         <v>774</v>
-      </c>
-      <c r="S202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE202" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF202" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="AG202" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH202" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI202" t="s" s="2">
-        <v>776</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>106</v>
@@ -27311,10 +27305,10 @@
         <v>83</v>
       </c>
       <c r="AM202" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AN202" t="s" s="2">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="AO202" t="s" s="2">
         <v>83</v>
@@ -27325,10 +27319,10 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -27354,23 +27348,23 @@
         <v>114</v>
       </c>
       <c r="L203" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="M203" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="O203" t="s" s="2">
         <v>780</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="O203" t="s" s="2">
-        <v>782</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q203" s="2"/>
       <c r="R203" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="S203" t="s" s="2">
         <v>83</v>
@@ -27412,7 +27406,7 @@
         <v>83</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>81</v>
@@ -27433,10 +27427,10 @@
         <v>83</v>
       </c>
       <c r="AM203" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="AN203" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AO203" t="s" s="2">
         <v>83</v>
@@ -27447,10 +27441,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -27476,13 +27470,13 @@
         <v>191</v>
       </c>
       <c r="L204" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="M204" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>682</v>
-      </c>
-      <c r="M204" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>684</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>503</v>
@@ -27534,7 +27528,7 @@
         <v>83</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>81</v>
@@ -27543,7 +27537,7 @@
         <v>94</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>106</v>
@@ -27569,10 +27563,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -27656,7 +27650,7 @@
         <v>83</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>81</v>
@@ -27691,10 +27685,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27720,16 +27714,16 @@
         <v>84</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="O206" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P206" t="s" s="2">
         <v>83</v>
@@ -27778,7 +27772,7 @@
         <v>83</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>81</v>
@@ -27799,10 +27793,10 @@
         <v>83</v>
       </c>
       <c r="AM206" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AN206" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AO206" t="s" s="2">
         <v>83</v>
